--- a/src/test/resources/new.xlsx
+++ b/src/test/resources/new.xlsx
@@ -1,27 +1,44 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F68F7-710B-4C64-9C3D-FF1A7EA2B5DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>3</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="3" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+      <vt:lpstr>TestSheet</vt:lpstr>
+      <vt:lpstr>yes </vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>16.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Apache POI</dc:creator>
+  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2022-08-02T12:39:16Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-08-03T05:36:18Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>element_type</t>
   </si>
@@ -121,7 +138,7 @@
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -171,7 +188,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -466,7 +483,29 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB84A8-2349-4F1B-A23E-7EE3B12BBF7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="yes " sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -626,12 +665,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,4 +710,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl\worksheets\sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5BCF90-099B-4EDB-AD95-9BF05D5ABFBD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>